--- a/Project Planning/Skills Audit/Individual Skill Audit/Kadamber Verma.xlsx
+++ b/Project Planning/Skills Audit/Individual Skill Audit/Kadamber Verma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Individual Skill Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Individual Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDD658-A075-4204-A678-9B3619E82005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74459DE-11D9-411B-9752-D340F160A71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,16 +203,16 @@
     <t>To implement payment gateway.</t>
   </si>
   <si>
-    <t>Microsoft Powerpoint</t>
-  </si>
-  <si>
-    <t>To make professional presentation for our website.</t>
-  </si>
-  <si>
     <t>Kadamber Verma</t>
   </si>
   <si>
     <t>Completed By: Kadamber Verma</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>To make professional documentation for our website.</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>1</v>
@@ -1201,17 +1201,23 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43898</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -1222,17 +1228,23 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>43896</v>
+      </c>
       <c r="H8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1243,38 +1255,50 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>43896</v>
+      </c>
       <c r="H9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>43893</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1285,38 +1309,50 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>43891</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43893</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1327,17 +1363,23 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>43896</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1348,17 +1390,23 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>43893</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1369,17 +1417,23 @@
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43898</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -1390,17 +1444,23 @@
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>43898</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1411,17 +1471,23 @@
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
       <c r="D17" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>43896</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,17 +1497,23 @@
       <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
       <c r="D18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>43898</v>
+      </c>
       <c r="H18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,17 +1523,23 @@
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
       <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>43898</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,17 +1549,23 @@
       <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
       <c r="D20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>43898</v>
+      </c>
       <c r="H20" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,17 +1575,23 @@
       <c r="B21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
       <c r="D21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>43893</v>
+      </c>
       <c r="H21" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,17 +1601,23 @@
       <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
       <c r="D22" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>43898</v>
+      </c>
       <c r="H22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,17 +1627,23 @@
       <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
       <c r="D23" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>43896</v>
+      </c>
       <c r="H23" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,19 +1651,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
       <c r="D24" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>43891</v>
+      </c>
       <c r="H24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Project Planning/Skills Audit/Individual Skill Audit/Kadamber Verma.xlsx
+++ b/Project Planning/Skills Audit/Individual Skill Audit/Kadamber Verma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Individual Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74459DE-11D9-411B-9752-D340F160A71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CE8566-12E4-4575-8191-19CE504D0517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23640" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1088,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>48</v>
@@ -1310,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -1319,7 +1319,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="9">
         <v>43891</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
@@ -1346,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="9">
         <v>43893</v>
@@ -1364,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -1373,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="9">
         <v>43896</v>
@@ -1418,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
@@ -1445,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
@@ -1472,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>43</v>
@@ -1498,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>44</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>42</v>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>52</v>
@@ -1576,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>50</v>
@@ -1585,7 +1585,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="9">
         <v>43893</v>
@@ -1602,7 +1602,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>53</v>
@@ -1611,7 +1611,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="9">
         <v>43898</v>
@@ -1628,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>50</v>
